--- a/Sufficient data WITH_PO/B09JZFT4SN_Optuna_PO_Forecast.xlsx
+++ b/Sufficient data WITH_PO/B09JZFT4SN_Optuna_PO_Forecast.xlsx
@@ -518,7 +518,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
